--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/classic-evergreen-refresh.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/classic-evergreen-refresh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_809B404951B3751830D6D964EDB4B4FE2D73F92C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF7F5EA1-1A7B-4354-96DE-5799CDB2FB7C}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="11_809B404951B3751830D6D964EDB4B4FE2D73F92C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{338BC21D-7532-48B1-AA9D-2E2B0ECB6CDE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -55,7 +55,7 @@
     <t>Recommendation Type</t>
   </si>
   <si>
-    <t>https://www.crepeerase.com/campaign/classic-evergeen-refresh</t>
+    <t>https://www.crepeerase.com/campaign/classic-evergreen-refresh</t>
   </si>
   <si>
     <t>https://www.crepeerase.com/?src=lf_no_prp_classic_evergreen</t>
@@ -257,8 +257,7 @@
 All orders are subject to applicable sales tax.</t>
   </si>
   <si>
-    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of Crepe Erase. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $39.95 plus $2.99 for shipping and handling per month, unless you call to cancel.There is no commitment and no minimum to buy.
-All orders are subject to applicable sales tax.</t>
+    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of Crepe Erase. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $39.95 plus $2.99 for shipping and handling per month, unless you call to cancel.There is no commitment and no minimum to buy.</t>
   </si>
   <si>
     <t>Post Purchase Supplemental Cart Language</t>
@@ -1231,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1924,7 +1923,7 @@
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="1:9" ht="152.25" customHeight="1">
+    <row r="43" spans="1:9" ht="122.25" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
@@ -2286,21 +2285,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2465,14 +2455,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E163DD2-05DE-4FB8-AF89-0B18CD792872}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92307D32-BF08-40C2-B256-1466B6A37ECD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92307D32-BF08-40C2-B256-1466B6A37ECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B219C45-8734-4124-9D51-696D5CA6BD51}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B219C45-8734-4124-9D51-696D5CA6BD51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E163DD2-05DE-4FB8-AF89-0B18CD792872}"/>
 </file>